--- a/statistics/Evaluation.xlsx
+++ b/statistics/Evaluation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="6540" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="6700" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -176,6 +176,3889 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Mean Tasks per WA depending on Reputation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t>; Total and per Round</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0-0,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$C$1,Statistics!$E$1:$N$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Tasks Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Tasks R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Tasks R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Tasks R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Tasks R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Tasks R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Tasks R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Tasks R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Tasks R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Tasks R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Tasks R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$C$2,Statistics!$E$2:$N$2)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.103092783505151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.44444444444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.93023255813953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.17241379310344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.90243902439024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.1363636363636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.6041666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,1-0,2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$C$1,Statistics!$E$1:$N$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Tasks Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Tasks R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Tasks R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Tasks R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Tasks R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Tasks R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Tasks R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Tasks R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Tasks R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Tasks R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Tasks R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$C$3,Statistics!$E$3:$N$3)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.66101694915254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.02711864406779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.33938706015891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.31602914389799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5624496373892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.42119565217391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.10554089709762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.13246753246753</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9975369458128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,2-0,3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$C$1,Statistics!$E$1:$N$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Tasks Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Tasks R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Tasks R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Tasks R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Tasks R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Tasks R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Tasks R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Tasks R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Tasks R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Tasks R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Tasks R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$C$4,Statistics!$E$4:$N$4)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.89130284609008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.763584366062917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.569302792175221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.677232447171097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73854400830019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.74526515151515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.76782077393075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.89035532994923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.87227722772277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.03121852970795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,3-0,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$C$1,Statistics!$E$1:$N$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Tasks Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Tasks R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Tasks R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Tasks R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Tasks R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Tasks R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Tasks R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Tasks R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Tasks R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Tasks R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Tasks R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$C$5,Statistics!$E$5:$N$5)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.35724677843979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.703753053519875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.806225090149933</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86751197020748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.889556853315011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.54730713245997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.60765550239234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.76141479099678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.03880407124681</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.14482345900658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,4-0,5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$C$1,Statistics!$E$1:$N$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Tasks Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Tasks R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Tasks R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Tasks R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Tasks R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Tasks R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Tasks R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Tasks R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Tasks R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Tasks R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Tasks R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$C$6,Statistics!$E$6:$N$6)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.65267087215695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.65274634848796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.78087017791086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.86939975782736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.98240321769733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8639846743295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.10503842869342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.16319165998396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.22564687975646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.30919117647058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,5-0,6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$C$1,Statistics!$E$1:$N$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Tasks Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Tasks R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Tasks R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Tasks R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Tasks R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Tasks R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Tasks R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Tasks R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Tasks R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Tasks R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Tasks R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$C$7,Statistics!$E$7:$N$7)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.31342723975874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.47265240904621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.41499811106913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.38857791225416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.46333865814696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.62830188679245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.94570267131242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0279528637983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.05548216644649</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.10920824025812</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.07443682664054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,6-0,7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$C$1,Statistics!$E$1:$N$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Tasks Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Tasks R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Tasks R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Tasks R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Tasks R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Tasks R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Tasks R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Tasks R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Tasks R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Tasks R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Tasks R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$C$8,Statistics!$E$8:$N$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.6682757468298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.19353701527614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2074157023765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.43669683763548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53066141042487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.26145339652448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.25513874614594</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.26374745417515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.23835688121402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.20036910097548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,7-0,8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$C$1,Statistics!$E$1:$N$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Tasks Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Tasks R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Tasks R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Tasks R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Tasks R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Tasks R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Tasks R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Tasks R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Tasks R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Tasks R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Tasks R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$C$9,Statistics!$E$9:$N$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.60099019419342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.31308584114454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.62427061310782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.55941936513</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.65177051413006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.24840570907986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.25586001980851</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.15989067304407</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.20197224251278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.19285182427401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,8-0,9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$C$1,Statistics!$E$1:$N$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Tasks Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Tasks R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Tasks R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Tasks R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Tasks R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Tasks R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Tasks R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Tasks R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Tasks R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Tasks R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Tasks R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$C$10,Statistics!$E$10:$N$10)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.82910952495522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.38686042251801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.68594026508721</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6337009582354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.82552978235967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.22749273959341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.12119565217391</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.18233082706766</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.08190224570673</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.11037527593818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,9-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$C$1,Statistics!$E$1:$N$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Tasks Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Tasks R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Tasks R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Tasks R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Tasks R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Tasks R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Tasks R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Tasks R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Tasks R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Tasks R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Tasks R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$C$11,Statistics!$E$11:$N$11)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.12615065473875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.96251171508903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.21922777921741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.93269299181785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.22919334186939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.07025411061285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.02568493150684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.00945179584121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.99418604651162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="527070256"/>
+        <c:axId val="452338000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="527070256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452338000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452338000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527070256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Mean Effort per WA depending on Reputation;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Total and per Round</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0-0,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$B$1,Statistics!$Q$1:$Z$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Effort Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Effort R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Effort R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Effort R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Effort R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Effort R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Effort R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Effort R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Effort R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Effort R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Effort R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$B$2,Statistics!$Q$2:$Z$2)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26.274914089347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.4074074074074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.4883720930232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.34482758620689</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.9024390243902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.9090909090909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.8599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,1-0,2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$B$1,Statistics!$Q$1:$Z$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Effort Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Effort R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Effort R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Effort R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Effort R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Effort R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Effort R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Effort R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Effort R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Effort R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Effort R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$B$3,Statistics!$Q$3:$Z$3)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.39977892409727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.10508474576271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.68671963677639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.71493624772313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.44077356970185</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25543478260869</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.69066666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.24274406332453</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.32727272727272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.80049261083743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,2-0,3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$B$1,Statistics!$Q$1:$Z$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Effort Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Effort R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Effort R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Effort R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Effort R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Effort R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Effort R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Effort R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Effort R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Effort R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Effort R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$B$4,Statistics!$Q$4:$Z$4)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.25563000828958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.06577693040991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.43504430697207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7622699386503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9766557150268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.84090909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.030549898167</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.41725888324873</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.37722772277227</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.19838872104733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,3-0,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$B$1,Statistics!$Q$1:$Z$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Effort Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Effort R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Effort R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Effort R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Effort R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Effort R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Effort R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Effort R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Effort R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Effort R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Effort R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$B$5,Statistics!$Q$5:$Z$5)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.32333379520576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.90273151232511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.04725754412601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.20695158716084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.15647543799381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.80494905385735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.08885850991114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6032154340836</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.36577608142493</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.69120287253141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,4-0,5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$B$1,Statistics!$Q$1:$Z$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Effort Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Effort R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Effort R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Effort R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Effort R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Effort R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Effort R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Effort R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Effort R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Effort R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Effort R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$B$6,Statistics!$Q$6:$Z$6)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.0868395161757</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.37502571487348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.73313369737537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8130081300813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.26512485336014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.1867816091954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.833048676345</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.2249398556535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.6236681887366</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.8919117647058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,5-0,6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$B$1,Statistics!$Q$1:$Z$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Effort Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Effort R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Effort R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Effort R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Effort R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Effort R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Effort R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Effort R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Effort R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Effort R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Effort R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$B$7,Statistics!$Q$7:$Z$7)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.02541808614481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0021878072763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.89535323007177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.67972768532526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9349840255591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.42067610062893</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.1088850174216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.4634146341463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.6023778071334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.8468602630925</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.7485308521057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,6-0,7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$B$1,Statistics!$Q$1:$Z$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Effort Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Effort R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Effort R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Effort R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Effort R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Effort R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Effort R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Effort R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Effort R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Effort R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Effort R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$B$8,Statistics!$Q$8:$Z$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11.1508512652939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.633254994124551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.55866616896851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.2684098781986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.6319535698642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.1390205371248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.2160842754367</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.2688391038696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.1159079016221</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.9773266543633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,7-0,8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$B$1,Statistics!$Q$1:$Z$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Effort Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Effort R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Effort R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Effort R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Effort R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Effort R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Effort R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Effort R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Effort R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Effort R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Effort R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$B$9,Statistics!$Q$9:$Z$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11.6461017112093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.2489208189442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.3287949260042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.2380762482054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.5074906367041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.2778621317947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.3040607461208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.1400751622821</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.2037983929875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.2635889798957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,8-0,9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$B$1,Statistics!$Q$1:$Z$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Effort Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Effort R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Effort R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Effort R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Effort R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Effort R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Effort R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Effort R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Effort R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Effort R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Effort R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$B$10,Statistics!$Q$10:$Z$10)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13.029713689951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.805226523385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.8183032973382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5065389019466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.8223081328751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.595353339787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.3298913043478</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.437969924812</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.2364597093791</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.1817512877115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,9-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Statistics!$B$1,Statistics!$Q$1:$Z$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Mean Effort Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mean Effort R1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mean Effort R2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mean Effort R3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mean Effort R4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mean Effort R5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mean Effort R6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mean Effort R7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mean Effort R8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Effort R9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Mean Effort R10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Statistics!$B$11,Statistics!$Q$11:$Z$11)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14.5186049526772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.7142857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.686504217432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.9033428349313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.2445393098541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.4071702944942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.9267563527653</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.5256849315068</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.4574669187145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.4980620155038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="660667424"/>
+        <c:axId val="655858480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="660667424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655858480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="655858480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660667424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,10 +4324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,7 +4355,7 @@
     <col min="24" max="24" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -512,8 +4395,38 @@
       <c r="N1" t="s">
         <v>32</v>
       </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -551,10 +4464,40 @@
         <v>12.06</v>
       </c>
       <c r="N2" s="1">
-        <v>1.66041666666666</v>
+        <v>16.6041666666666</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>9.3333333333333304</v>
+      </c>
+      <c r="T2" s="1">
+        <v>10.407407407407399</v>
+      </c>
+      <c r="U2" s="1">
+        <v>11.4883720930232</v>
+      </c>
+      <c r="V2" s="1">
+        <v>9.3448275862068897</v>
+      </c>
+      <c r="W2" s="1">
+        <v>21.902439024390201</v>
+      </c>
+      <c r="X2" s="1">
+        <v>35.909090909090899</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>34.8599999999999</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>47.8125</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -594,8 +4537,38 @@
       <c r="N3" s="1">
         <v>1.9975369458128001</v>
       </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2.10508474576271</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3.6867196367763899</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3.7149362477231298</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4.4407735697018502</v>
+      </c>
+      <c r="V3" s="1">
+        <v>6.25543478260869</v>
+      </c>
+      <c r="W3" s="1">
+        <v>5.6906666666666599</v>
+      </c>
+      <c r="X3" s="1">
+        <v>5.2427440633245297</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>5.3272727272727201</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>4.8004926108374297</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -635,8 +4608,38 @@
       <c r="N4" s="1">
         <v>2.0312185297079499</v>
       </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2.0657769304099101</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.43504430697207</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1.7622699386503</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.9766557150268</v>
+      </c>
+      <c r="V4" s="1">
+        <v>3.8409090909090899</v>
+      </c>
+      <c r="W4" s="1">
+        <v>4.030549898167</v>
+      </c>
+      <c r="X4" s="1">
+        <v>4.4172588832487296</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>4.37722772277227</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>5.1983887210473299</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -676,8 +4679,38 @@
       <c r="N5" s="1">
         <v>3.14482345900658</v>
       </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1.9027315123251101</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2.0472575441260101</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2.2069515871608401</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2.15647543799381</v>
+      </c>
+      <c r="V5" s="1">
+        <v>5.8049490538573503</v>
+      </c>
+      <c r="W5" s="1">
+        <v>6.0888585099111401</v>
+      </c>
+      <c r="X5" s="1">
+        <v>6.6032154340835998</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>7.3657760814249302</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>7.6912028725314103</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -717,8 +4750,38 @@
       <c r="N6" s="1">
         <v>4.3091911764705797</v>
       </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4.3750257148734804</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4.7331336973753704</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4.8130081300813004</v>
+      </c>
+      <c r="U6" s="1">
+        <v>5.26512485336014</v>
+      </c>
+      <c r="V6" s="1">
+        <v>10.1867816091954</v>
+      </c>
+      <c r="W6" s="1">
+        <v>10.833048676344999</v>
+      </c>
+      <c r="X6" s="1">
+        <v>11.224939855653499</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>11.6236681887366</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>11.891911764705799</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -758,8 +4821,38 @@
       <c r="N7" s="1">
         <v>4.0744368266405404</v>
       </c>
+      <c r="Q7" s="1">
+        <v>8.0021878072763002</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3.8953532300717701</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3.6797276853252598</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3.9349840255591002</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4.4206761006289303</v>
+      </c>
+      <c r="V7" s="1">
+        <v>11.108885017421599</v>
+      </c>
+      <c r="W7" s="1">
+        <v>11.4634146341463</v>
+      </c>
+      <c r="X7" s="1">
+        <v>11.602377807133401</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>11.8468602630925</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>11.7485308521057</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -799,8 +4892,38 @@
       <c r="N8" s="1">
         <v>4.2003691009754798</v>
       </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>9.6332549941245507</v>
+      </c>
+      <c r="S8" s="1">
+        <v>9.5586661689685108</v>
+      </c>
+      <c r="T8" s="1">
+        <v>10.2684098781986</v>
+      </c>
+      <c r="U8" s="1">
+        <v>10.6319535698642</v>
+      </c>
+      <c r="V8" s="1">
+        <v>13.1390205371248</v>
+      </c>
+      <c r="W8" s="1">
+        <v>13.2160842754367</v>
+      </c>
+      <c r="X8" s="1">
+        <v>13.268839103869601</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>13.1159079016221</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>12.977326654363299</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -840,8 +4963,38 @@
       <c r="N9" s="1">
         <v>4.19285182427401</v>
       </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>11.2489208189442</v>
+      </c>
+      <c r="S9" s="1">
+        <v>11.3287949260042</v>
+      </c>
+      <c r="T9" s="1">
+        <v>11.238076248205401</v>
+      </c>
+      <c r="U9" s="1">
+        <v>11.5074906367041</v>
+      </c>
+      <c r="V9" s="1">
+        <v>13.2778621317947</v>
+      </c>
+      <c r="W9" s="1">
+        <v>13.3040607461208</v>
+      </c>
+      <c r="X9" s="1">
+        <v>13.1400751622821</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>13.203798392987499</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>13.263588979895699</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -881,8 +5034,38 @@
       <c r="N10" s="1">
         <v>4.1103752759381802</v>
       </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>14.805226523385</v>
+      </c>
+      <c r="S10" s="1">
+        <v>12.818303297338201</v>
+      </c>
+      <c r="T10" s="1">
+        <v>12.5065389019466</v>
+      </c>
+      <c r="U10" s="1">
+        <v>12.822308132875101</v>
+      </c>
+      <c r="V10" s="1">
+        <v>13.595353339787</v>
+      </c>
+      <c r="W10" s="1">
+        <v>13.3298913043478</v>
+      </c>
+      <c r="X10" s="1">
+        <v>13.437969924812</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>13.236459709379099</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>13.181751287711499</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -922,360 +5105,40 @@
       <c r="N11" s="1">
         <v>3.9941860465116199</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E15" s="1">
+      <c r="Q11" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>9.3333333333333304</v>
-      </c>
-      <c r="H15" s="1">
-        <v>10.407407407407399</v>
-      </c>
-      <c r="I15" s="1">
-        <v>11.4883720930232</v>
-      </c>
-      <c r="J15" s="1">
-        <v>9.3448275862068897</v>
-      </c>
-      <c r="K15" s="1">
-        <v>21.902439024390201</v>
-      </c>
-      <c r="L15" s="1">
-        <v>35.909090909090899</v>
-      </c>
-      <c r="M15" s="1">
-        <v>34.8599999999999</v>
-      </c>
-      <c r="N15" s="1">
-        <v>47.8125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2.10508474576271</v>
-      </c>
-      <c r="G16" s="1">
-        <v>3.6867196367763899</v>
-      </c>
-      <c r="H16" s="1">
-        <v>3.7149362477231298</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4.4407735697018502</v>
-      </c>
-      <c r="J16" s="1">
-        <v>6.25543478260869</v>
-      </c>
-      <c r="K16" s="1">
-        <v>5.6906666666666599</v>
-      </c>
-      <c r="L16" s="1">
-        <v>5.2427440633245297</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5.3272727272727201</v>
-      </c>
-      <c r="N16" s="1">
-        <v>4.8004926108374297</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2.0657769304099101</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1.43504430697207</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.7622699386503</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1.9766557150268</v>
-      </c>
-      <c r="J17" s="1">
-        <v>3.8409090909090899</v>
-      </c>
-      <c r="K17" s="1">
-        <v>4.030549898167</v>
-      </c>
-      <c r="L17" s="1">
-        <v>4.4172588832487296</v>
-      </c>
-      <c r="M17" s="1">
-        <v>4.37722772277227</v>
-      </c>
-      <c r="N17" s="1">
-        <v>5.1983887210473299</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.9027315123251101</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2.0472575441260101</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2.2069515871608401</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2.15647543799381</v>
-      </c>
-      <c r="J18" s="1">
-        <v>5.8049490538573503</v>
-      </c>
-      <c r="K18" s="1">
-        <v>6.0888585099111401</v>
-      </c>
-      <c r="L18" s="1">
-        <v>6.6032154340835998</v>
-      </c>
-      <c r="M18" s="1">
-        <v>7.3657760814249302</v>
-      </c>
-      <c r="N18" s="1">
-        <v>7.6912028725314103</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4.3750257148734804</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4.7331336973753704</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4.8130081300813004</v>
-      </c>
-      <c r="I19" s="1">
-        <v>5.26512485336014</v>
-      </c>
-      <c r="J19" s="1">
-        <v>10.1867816091954</v>
-      </c>
-      <c r="K19" s="1">
-        <v>10.833048676344999</v>
-      </c>
-      <c r="L19" s="1">
-        <v>11.224939855653499</v>
-      </c>
-      <c r="M19" s="1">
-        <v>11.6236681887366</v>
-      </c>
-      <c r="N19" s="1">
-        <v>11.891911764705799</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E20" s="1">
-        <v>8.0021878072763002</v>
-      </c>
-      <c r="F20" s="1">
-        <v>3.8953532300717701</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3.6797276853252598</v>
-      </c>
-      <c r="H20" s="1">
-        <v>3.9349840255591002</v>
-      </c>
-      <c r="I20" s="1">
-        <v>4.4206761006289303</v>
-      </c>
-      <c r="J20" s="1">
-        <v>11.108885017421599</v>
-      </c>
-      <c r="K20" s="1">
-        <v>11.4634146341463</v>
-      </c>
-      <c r="L20" s="1">
-        <v>11.602377807133401</v>
-      </c>
-      <c r="M20" s="1">
-        <v>11.8468602630925</v>
-      </c>
-      <c r="N20" s="1">
-        <v>11.7485308521057</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>9.6332549941245507</v>
-      </c>
-      <c r="G21" s="1">
-        <v>9.5586661689685108</v>
-      </c>
-      <c r="H21" s="1">
-        <v>10.2684098781986</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10.6319535698642</v>
-      </c>
-      <c r="J21" s="1">
-        <v>13.1390205371248</v>
-      </c>
-      <c r="K21" s="1">
-        <v>13.2160842754367</v>
-      </c>
-      <c r="L21" s="1">
-        <v>13.268839103869601</v>
-      </c>
-      <c r="M21" s="1">
-        <v>13.1159079016221</v>
-      </c>
-      <c r="N21" s="1">
-        <v>12.977326654363299</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>11.2489208189442</v>
-      </c>
-      <c r="G22" s="1">
-        <v>11.3287949260042</v>
-      </c>
-      <c r="H22" s="1">
-        <v>11.238076248205401</v>
-      </c>
-      <c r="I22" s="1">
-        <v>11.5074906367041</v>
-      </c>
-      <c r="J22" s="1">
-        <v>13.2778621317947</v>
-      </c>
-      <c r="K22" s="1">
-        <v>13.3040607461208</v>
-      </c>
-      <c r="L22" s="1">
-        <v>13.1400751622821</v>
-      </c>
-      <c r="M22" s="1">
-        <v>13.203798392987499</v>
-      </c>
-      <c r="N22" s="1">
-        <v>13.263588979895699</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>14.805226523385</v>
-      </c>
-      <c r="G23" s="1">
-        <v>12.818303297338201</v>
-      </c>
-      <c r="H23" s="1">
-        <v>12.5065389019466</v>
-      </c>
-      <c r="I23" s="1">
-        <v>12.822308132875101</v>
-      </c>
-      <c r="J23" s="1">
-        <v>13.595353339787</v>
-      </c>
-      <c r="K23" s="1">
-        <v>13.3298913043478</v>
-      </c>
-      <c r="L23" s="1">
-        <v>13.437969924812</v>
-      </c>
-      <c r="M23" s="1">
-        <v>13.236459709379099</v>
-      </c>
-      <c r="N23" s="1">
-        <v>13.181751287711499</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="R11" s="1">
         <v>14.714285714285699</v>
       </c>
-      <c r="G24" s="1">
+      <c r="S11" s="1">
         <v>16.686504217431999</v>
       </c>
-      <c r="H24" s="1">
+      <c r="T11" s="1">
         <v>14.9033428349313</v>
       </c>
-      <c r="I24" s="1">
+      <c r="U11" s="1">
         <v>14.244539309854099</v>
       </c>
-      <c r="J24" s="1">
+      <c r="V11" s="1">
         <v>13.4071702944942</v>
       </c>
-      <c r="K24" s="1">
+      <c r="W11" s="1">
         <v>12.926756352765301</v>
       </c>
-      <c r="L24" s="1">
+      <c r="X11" s="1">
         <v>12.525684931506801</v>
       </c>
-      <c r="M24" s="1">
+      <c r="Y11" s="1">
         <v>12.4574669187145</v>
       </c>
-      <c r="N24" s="1">
+      <c r="Z11" s="1">
         <v>12.4980620155038</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>